--- a/target/test-classes/com/inetBanking/testData/LoginData.xlsx
+++ b/target/test-classes/com/inetBanking/testData/LoginData.xlsx
@@ -31,10 +31,10 @@
     <t xml:space="preserve">Validation</t>
   </si>
   <si>
-    <t xml:space="preserve">mngr386731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EmErYpU</t>
+    <t xml:space="preserve">mngr429180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uvArajY</t>
   </si>
   <si>
     <t xml:space="preserve">Valid</t>
@@ -205,10 +205,10 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.3"/>
